--- a/Riddler/Express-2020-11-20/Riddler_Express.xlsx
+++ b/Riddler/Express-2020-11-20/Riddler_Express.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csears0010\Documents\GitHub\prof-sears.github.io\Riddler\Express-2020-11-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F8DD3-4BE1-41F1-8D54-24C2FE39C974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9EEC3-4295-428C-96EE-1287B094BBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B01923D4-F6A2-4A92-A050-572F28EF0B79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B01923D4-F6A2-4A92-A050-572F28EF0B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -33,6 +33,43 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,6 +478,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,9 +488,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,6 +509,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>11</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA11E51E-F3F2-458F-B2AA-5929D1B73B1F}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,19 +879,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
@@ -855,9 +951,9 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1">
-        <f ca="1">COUNTIF(Part_1!$D$2:$D$49,C$5)</f>
-        <v>6</v>
+      <c r="C6" s="1" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="C6" ca="1">Part_2!B62:B73+Part_2!B50=COUNTIF(Part_1!$D$2:$D$49,C$5)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D6" s="1">
         <f ca="1">COUNTIF(Part_1!$D$2:$D$49,D$5)</f>
@@ -2868,11 +2964,11 @@
       <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="N1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -5349,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FC73DC-453E-4716-B2CA-1559574D9A96}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5375,11 +5471,11 @@
       <c r="E1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="N1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
